--- a/data/qna/한의예과.xlsx
+++ b/data/qna/한의예과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,10 +458,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>종합을 쓰고 싶습니다!!</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>안녕하세요! 동의대 한의대를 희망하는 현역 이과 고3 남학생입니다.
+고1때 전국단위자사고를 다니다가 4.2x등급을 1학기에 받은 후 일반고로 전학을 와서
+1-2 1.3X
+2-1 1.1x
+2-2 1.8x(일본어ㅠㅠ), 1.5x(일본어제외)
+3-1 1.0
+으로 마무리했고,  3년 반장, 2년 학생회 임원을 했습니다.
+1,2학년은 수업과 수행평가, 다양한 학교활동을 열심히 챙기고 그에 따른 서술이 적혀있는 상태(계열은 이과계열로) 이지만
+3학년은 한의학 관련 활동을 절반 정도 채웠습니다. 공동교육과정도 두 개를 이수했고 생명과학부분은 생명1, 생명2, 생명과학실험, 고급생명과학을 이수했습니다.
+과탐을 물생지로 선택했었고, 수학은 다른 학과를 대비해서 확통과 기하를 선택했기에
+한의학 관련 활동을 화학보다는 물생지를 토대로 했습니다. 또한 확통과 기하를 한의학 계열과 연관짓기도 했습니다.
+엄청난 우주상향인점을 저 스스로 인지하고 있는데, 
+재학생분들은 어떻게 보시나요?? 동의한을 포기하면 딱히 쓸 카드가 없어서 글을 작성해봅니다.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>종합이니까 써볼만 하다고 생각됩니다
 그러나 대부분 종합으로 들어오신 분들도 내신이 꽤 높으셨단 점을 감안하셨으면 좋겠어요.
@@ -462,10 +494,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>한의대 생기부 아닌데 학종</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>문과+한의대 생기부 아닌데 종합전형으로 합격하신 분들 있나요?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>대부분 한의학 내용이 들어가 있었습니다</t>
         </is>
@@ -474,10 +516,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>학종 이과 1.7 중반~1.8 가능할까요!</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>과학2과목 수학기하까지 배운 그냥 평범한 일반고 이과입니다!
+국영수과한기준 1.7 중반이고 여기 계산법으로 하니 1.9점대이고 갱기부는 한의학쪽이에요
+1등급 10개 2등급 14개 3등급 4개 진로 다 에이 입니다
+완전히 버리는 카드라면 넣지 않으려 하는데 가능성 제로일까요!!?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>써볼만 하다고 생각됩니다
 면접을 잘 보신다는 전제하에요!</t>
@@ -487,10 +542,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>한의예과 학종</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>최저도 없는데 9명 뽑으면 일반고 학생은 어느정도 합격하나요?
+내신은 좋고 한의학 생기부인데 일반고라서 수준이 많이 떨어지는 것 같아 고민되네요ㅠㅠ 한의대 선배님들께서는 면접 어떻게 대비하셧는지도 여쭤보고 싶습니다! 보통 혼자서 준비하나요?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>제가 알기로는 대부분 일반고 학생 분들이 들어오셨습니다</t>
         </is>
@@ -499,10 +565,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>수시...</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>수시 원서 쓸 때 지역 인재 교과전형이랑 지역 인재 교과(저소득층) 전형 2개 동시에 쓸 수 있나요...?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>넹 ㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇㅅㅇㅅㄴㅅㅇ</t>
         </is>
@@ -511,10 +587,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>한의예과 학생부전형(생활우수자) 면접 질문</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>면접 질문 수준이 어떤거였는지 궁금합니다. 기억나시는 면접 질문이 있다면 알려주시면 감사하겠습니다.
+또 면접 비중이 얼마나 되는지 궁금합니다.
+내신은1.03인데 생기부가 문과 생기부이고 면접 자신이 없습니다 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
@@ -523,10 +611,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>한의예과 정시 문과 점수</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6월 이렇게 나왔는데ㅠㅠ 혹시 수능에서도 이렇게 나오면
+합격 가능할까요?ㅠㅠ 봐주세용..!! 백분위 입니다!
+국어 98 (1)
+수학 95 (2)
+영어 1
+한국사 2
+생윤 100 (1)
+사문 98 (1)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
@@ -535,10 +640,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>재수vs편입</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>재수가 나을까요 편입이 나을까요
+합격률이랑 시험강도에 대해서 궁금해요..</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>편입은 2년 기다려야 하고, 준비할게 꽤 많은 것으로 알고 있습니다. 개인적으로는 재수 추천드립니다</t>
         </is>
@@ -547,10 +663,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>일반교과 1.24 써볼까요 말까요??</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>이번에 최저가국수영 3합5에서 그냥 3합5로 변해가지고
+인기높은 동의대는 1.15?에서 끊긴더구 누가 그러덪데
+이걸 스는게 맞는지 모으겠슴더ㅠㅜ
+사실 최저도 빧세요 저한텐 흑흑</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>써볼만하긴해요
 근데 그냥 쓰는 카드로 생각하고, 
@@ -561,10 +690,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>한의대 지역인재전형</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>동의대학교 한의예과 지역인재전형으로 수시 지원하고 싶은 n수생입니다. 
+현주소지가 부산, 울산, 경남이 아니어도 고등학교 재학 당시 주소지가 경남이면 지원 가능할까요?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>니가 직접 알아보세요
 학교에 전화를 걸어서 물어봐 n수면 나이먹고 직접 알아볼 생각은 안하고 뭐하세요</t>
@@ -574,10 +714,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>일반편입</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>편입요강에 보면 지원자격이 국내대 2학년 수료라고 되있던데 해외대면 지원못하나요 ㅠㅠ? ㅠㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>어딜 날로먹으려고……ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
@@ -586,10 +736,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>지방일반고 2.0</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>오늘 대학박람회가서 설명 듣고 왔는데 생기부 1학년부터 한의로 써와서 면접 괜찮게 보면 쓸만하다고 했는데 아무리봐도 성적의 반영비율이 높은거 같아서요 정말로 쓸만할까요? 학종일반전형입니다</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>이번에 최저완화도 돼서 2.0은 조금 힘들거라 생각합니다</t>
         </is>
@@ -598,10 +758,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>내신 합격 가능권인가요?</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>문과 전교과 1.27 동의대 한의대식으로 1.22 나옵니다 (직접 입력한거라 정확한진 모르겠어요. 0.01정도의 오차는 있을수도..)
+6평은 일단 국어 영어 탐구평균 3합4 맞췄습니다.
+지역인재 가능해요.
+인터넷에서 올해 최저가 많이 완화 대서 다들 내신이 1.1x대에서 끊길거라 하더라구요.. 한장 써보면 버리는 카드일까요? 아니면 그래도 의미 있는 카드일까요</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>한번 써볼세요 혹시모르니.. 추합으로 될듯</t>
         </is>
@@ -610,10 +783,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>한의대생분들만 답해주세용♥️ 나머지 분들은 답도 하지 마시고 그냥 지나가세요</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>한의대 너무 가고 싶은데 1.19면 가능할까요? 교과 일반으로요 최저 맞춘다고 가정하면요 ㅠ 너무 가고 싶어요</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>하하 일반과 하층들은 무시하세요
 쓸만합니다 쓰세요</t>
@@ -623,10 +806,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>한의예과 정시</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>안녕하세요! 동의대 한의예과 정시 관심이 있어서 질문 남깁니다. 이전년도 한의예과 최종등록자 평균이 535.29로 알고 있습니다.
+ 6모 결과 121(92)/130(92)/1/69(98)66(98)로 
+국2 확통2 영어1 탐구 1,1로 받았습니다.환산점수는 547점이 나오는데 이점수로 지원해도 붙는 건가요? 
+동의대 한의예과 국수 평백이 98점 부근으로 알고 있는데 환산점수가 작년 최종등록자 평균보다 12점 이나 높게 나와서 궁금합니다</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>국수 평백 92로는 택도 없을걸요 환산식 오류거나 뭔가 잘못나온듯?</t>
         </is>
@@ -635,10 +831,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>한의예과 내신</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>안녕하세요
+저는 한의대 목표하는 고2입니다
+1학년 때 공부 안해서 내신 3.4가 나왔는데 이번 2-1 중간에 내신 2.1까지 올렸습니다. 2학기부터 1등급대 초중까지 올려도 한의대 낮은 학교를 수시로 쓰기 힘들까요…?
+유공자 전형을 쓸 수 있기는 해요(참고로 문과입니다)
+생기부는 1학년 때 한의대랑 관련 없는 내용으로 채워서 올해부터 한의대로 밀고 나가려고 합니당</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>내신으로는 안될거같은데요 ... ㅅㅇ</t>
         </is>
@@ -647,113 +857,135 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>기숙사 어떤가용!!</t>
+          <t>한의예과</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>방음 안됨
-밥에서 벌레 나오는글도 종종 올라옴
-룸메 잘못걸리면 롯뎀
-그냥 자취 or 통학 추천.
-어짜피 한의대면 긱사가 가깝다는 메리트도 없을듯?</t>
+          <t>앞으로 한의예과 가능할까요</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>제가 한의대를 희망하는데 이번 고1 중간고사에서 많이 망쳐서 4, 5등급이 나올거같은데 한의대를 정말 가고 싶은데 기말을 잘쳐서 될까요? 아니면 지금부터 정시준비를 빡세게 하는게 더 가능성이 있을까요.
+구체적으로 답변해주시면 감사하겠습니다.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>정말 한의대를 오고 싶으시면 정시준비가 맞지만 1학년부터 정시준비는 추천 드리지않아요.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>학비 다들 어떻게 하고 다니시나요</t>
+          <t>한의예과</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>내신 1.24로 동의 한의를 교과로 쓸려는거면 절대적으로 안정으로 볼 수 가 없고 그리고 수의나 한의나 원하시는 곳 가야죠 돈때문에 선택할거면 그냥 수의 가시는게 맞을거 같아요.</t>
+          <t>문과 내신 1.3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3학년 1학기까지 동의대 기준 정확히 1.3 나왔습니다. 2학기는 국어 탐구 탐구 111 나오고 한문이 3 나왔는데요.. 일반 교과 전형으로 어느 정도 내신까지 뚫리는지 궁금합니다.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>최저 완화되어서 1.1대에서 끊길 겁니다
+-교과로 들어온 23학번-</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>앞으로 한의예과 가능할까요</t>
+          <t>한의예과</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>정말 한의대를 오고 싶으시면 정시준비가 맞지만 1학년부터 정시준비는 추천 드리지않아요.</t>
+          <t>22년도 수시 일반고교과 내신 컷이 21년보다 많이 낮아진 이유가 뭘까요?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22년도 수시 일반고교과 내신 컷이 21년보다 많이 낮아진 이유가 뭘까요? 수능 방식이 바뀌어서일까요? 궁금해서 여쭤보고 싶어요!</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22년 국어/영어 불수능으로 최저 미충족 인원 많아짐 + 검정고시 안받기 시작…?으로 알고 있습니다</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>문과 내신 1.3</t>
+          <t>한의예과</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>최저 완화되어서 1.1대에서 끊길 겁니다
--교과로 들어온 23학번-</t>
+          <t>동의대 생활우수자전형(종합)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>안녕하세요 저는 지방 일반고 재학중인 문과생인데요!
+현재 1,2학년 총 내신은 1.03입니다. 다름이 아니라 교과전형으로 넣고 싶긴한데 최저문제때문에 교과는 일단 배제하고 학종으로 넣는다면 합격할 가능성이 어느정도인지 여쭤보고 싶습니다! 생기부는 제가 원래 교대를 희망했어서 과학을 지구과학만 선택했고, 1학년는 교대 생기부고 2학년때는 교대반 한의대반정도 3학년때는 한의대 생기부로 다 채울예정입니다! 면접은 자신있는편은 아닙니다!</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>무조건 될듯 그래도 최저 맞추려고 해보셈 면접이야 학원가서 준비하면 되고</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22년도 수시 일반고교과 내신 컷이 21년보다 많이 낮아진 이유가 뭘까요?</t>
+          <t>한의예과</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22년 국어/영어 불수능으로 최저 미충족 인원 많아짐 + 검정고시 안받기 시작…?으로 알고 있습니다</t>
+          <t>재수로 동의대 한의대를 가고 싶습니다 !</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>제가 현역 때는 확통 사탐을 해서 재수 때도 탐구는 사탐으로 쭉 할건데 수학을 미적을 해야할지 확통을 해야할지 고민입니다 인문 자연 나눠서 뽑기는 하는데 인문을 올해 3명만 뽑더라구요 자연은 10명이고 인문에서 확통 사탐으로 해도 확통 과탐하는 친구들을 이길 수 있을까요??</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>내년엔 인문 정시 4명일껄용
+의대 보는거 아니시면 걍 확통사탐 ㄱㄱ</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>동의대 생활우수자전형(종합)</t>
+          <t>한의예과</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>무조건 될듯 그래도 최저 맞추려고 해보셈 면접이야 학원가서 준비하면 되고</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>질문드립니다!</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1. 22학번은 양정 3일 가야 2일
-2. 두 경우 다 보통 택시팟을 구해서 타고 다님</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>재수로 동의대 한의대를 가고 싶습니다 !</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>내년엔 인문 정시 4명일껄용
-의대 보는거 아니시면 걍 확통사탐 ㄱㄱ</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
           <t>서울대 재학중인 학생입니다.</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>서울대 인문계열 재학중이고, 특목고에서 수시 학종으로 입학했습니다. 
+생기부에 따로 한의학 관련 내용 없고, 내신도 2.5정도인데 넣어볼만 할까요?</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>학종 합격자 대다수가 이과+한의대 생기부인 걸로 알고 있습니다
 그래도 서울대 합격 생기부이니 한 번 넣어 보셔도 나쁘지는 않을 것 같아요
@@ -761,111 +993,122 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>문과정시</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>재수생인데 연경고경목표로하다가 갑자기 한의대가 가고싶어졌습니다...ㅜㅜ
+9평 언매 확통 정법 동사 94 98 1 99 99
+터무니없이 부족한점수입니다..
+반수까지 생각하고 있어요ㅜㅜㅜ
+혹시 문과로 이번에 들어가신분 있으신가요??
+성적이 얼마나 더 필요한지, 문과인데 한의대가 맞을지 조언부탁드립니다ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>국어 수학 백분위 2개 평균이 97.5는 되어야 안전할걸요 이번에 지역인재 확충으로 일반 정원은 더 줄어드는 걸로 알아서 입결도 올라갈 가능성이 높고요.. 한의대 공부는 특정 몇 과목만 빼면 문과생들이 오히려 이과생들보다 잘 맞아하는 거 같더라고요</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>내신 1.74~1.68 한의예 일반 최저 맞추면 가능한가요?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3-1내신 1.74 3-2는 1.68 정도 되는거 같아요 
+한의대에 꿈이 다시 생겨서 올해 원래 원하던 대학 가고 휴학이나 반수로 재도전 하고 싶은데 동의대 한의예 최저 맞추면 가능할지 궁금해서 물어봅니다 ㅠㅠㅠ
+만약에 안된다면 다른 한의대 추천해주세요 ㅠㅠ(지역인재 전북권으로 됩니다만 우석대는 아마 1.0이 아닐거에요...수학 내신도 낮습니다ㅠ)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>최저있는 교과는 힘들것 같고 종합으로 해보세요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>일반고 한의예과</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>한의예과 70%컷들 보면 제일 낮은게 (자연)2.후반 까지 있던데 생기부는 1학년부터 2학년까지 거의 의료보건 으로 차 있는데 종합으로 대충 몇점대까지 합격할 수 있을까요 수능 최저는 맞춘다는 조건으로요</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>답변 없음</t>
+        </is>
+      </c>
+    </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>자취방 위치</t>
+          <t>한의예과</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>양정도 비슷했던거같아요 양정 동쪽... 양정역 도보 5~10분정도 되는곳에 했었는데 14년도 가야랑 18년도 양정이랑 비슷했어요.</t>
+          <t>학종 면접</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>학종 면접 시에 작년이나 재작년엔 오전 오후로 나눠서 했나요? 각각 몇시부터 몇시인지 궁금합니당..!</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>저는 오전 오후 나눠서  했어요 10시 1시 이런식으로</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>한의대 과잠 어떻게 생겼나요?</t>
+          <t>한의예과</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>검정색 색상에 흰색 실 이얐단거 같아용</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>어느 캠퍼스에서 수업을 들으세요??</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>양정에서 들어요
-그외는 전부 가야 
-.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>문과정시</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>국어 수학 백분위 2개 평균이 97.5는 되어야 안전할걸요 이번에 지역인재 확충으로 일반 정원은 더 줄어드는 걸로 알아서 입결도 올라갈 가능성이 높고요.. 한의대 공부는 특정 몇 과목만 빼면 문과생들이 오히려 이과생들보다 잘 맞아하는 거 같더라고요</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>내신 1.74~1.68 한의예 일반 최저 맞추면 가능한가요?</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>최저있는 교과는 힘들것 같고 종합으로 해보세요!</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>일반고 한의예과</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>예과가 그렇기 힘든가요?</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>맞아요 웬만하면 다른 한의대 가세요..</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>학종 면접</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>저는 오전 오후 나눠서  했어요 10시 1시 이런식으로</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
           <t>한의대 문과 수시</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>안녕하세요 저는 몇 년 전에 수도권 외고 국제고 계열의 특목고 졸업했습니다. 전공이 맞지 않아 고민하던중 한의학과 가능성 있을지 여쭤봅니다
+졸업: 문과 특목고(외고 국제고 계열)
+-내신: 전과목 기준 2.3 (학종은 특목고 고려해주나요?? 특목고 기준으론 높은 내신인데 전형상으론 잘 모르겠어서 여쭤봅니다)
+-생기부: 이과나 한약 관련 내용은 없습니다.. 국제적 내용이에요 세특 자체는 풍성한데 고민이 많습니다.. 한의학 관련 생기부가 많이 중요한가요
+교과전형은 일반고 특목고 구분이 없어서 넣기가 어렵고 수능은 친지가 너무 오래되어서 자신이 없습니다. 다른 학교 한의대 추천도 괜찮아요. 알려주시면 큰 도움 될 것 같습니다!!</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>한의학 관련 생기부 있으면 좋지만
 없어도 이유를 잘 설명하면 되는 거 같아요. (자소서가 아직 있나요?)
@@ -874,147 +1117,225 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>한의대 입결 관련 질문</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>안녕하십니까 23학년도 수능을 준비하는 문과 수험생입니다.
+제가 한의대를 졸업하여 한의사가 되고 싶어서 입결 관련 자료를 찾아보았는데, 기본 올 1등급에 총 수능에서 5~10개를 틀려야 하는 것으로 압니다. 근데 올 1등급이라는 과목 기준에 한국사가 포함되는지 궁금합니다. 제가 아는 친구들 중에서는 3등급만 넘으면 이상 없다 이렇게 말하는 친구들도 있고, 한의대인데 무조건 1등급을 맞아야 하지 않겠느냐 이런 말을 하는 친구들도 있어서 무엇이 맞는지 헷갈립니다. 입결 관련 자료에서도 한국사는 논외로 하는 경우도 많고요. 
+또 문과로 진학하는 분들이 매년 얼마나 많은지 또한 궁금합니다. 물론 점수를 맞춰서 들어오시는 부분이겠지만, 같은 문과로서 어느정도 비율이 있으신지 궁금해서욥
+쉽지 않은 길이겠지만, 열심히 노력해서 한의대 가보려고 합니다. 열심히 노력해서 들어오신 모든 선배님들 존경합니다. 최근에 진학하신 많은 문과분들 답변 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 - 정시모집 - 모집요강에서 성적 산출 방법 찾아보세욥</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>지방 교과</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>지역 일반고 이과 1학년입니다
+1학기 내신 1.47이구요 기술가정포함 1.7 나옵니다.
+학생부교과전형에서 기술가정, 정보도 함께 산출하나요??
+2학기때는 더 올릴자신있는데 한의 ㄱㄴ할까요??</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>성적 산출은 요강 참고하시고 최대한 1점 초반 수렴 시키세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>문과 정시 한의대</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9월 모평 443 받은 현역입니다. 삼~사수를 목표로 이 학교 오고 싶은데 n수로 오신 분들 보통 몇 번 정도 치셨나요?
+낮은 성적에 염치 없지만 여쭤봅니다...
+등급이나 점수도 알려주시면 감사하겠습니다!</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>학번 따라 케바케가 심한데 적은 학번은 현역이 30프로 미만이에요</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>동의대 한의대 최저없는 종합 조언 부탁드립니다</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>안녕하세요 저는 동의대 한의대 최저없는 종합 넣을까 고민중인 고3입니다
+제 생기부가 사실 한의학 관련된 내용은 딱 한개밖에 없고 한의학 책 2권정도 읽은걸 빼면 나머지 다 의학 활동이거든요...그런데 의대생기부로 한의대에 지원하면 힘들 수 있다는 조언을 들었습니다. 교수님들께서 의대 생기부는 선호하지 않으실수도 있다고 하시더라고요.
+성적이 더 낮아도 한의대 활동 위주로 한 학생을 선호한다는데 혹시 이게 사실일까요?
+질문을 정리하자면
+1. 최저 없는 종합전형으로 합격하신 분들께서는 혹시 모두 한의대 위주 생기부인지 여쭙고싶습니다! 의대생기부로 합격하신분 혹시나 있으실까요
+2.의대 준비하던 학생들이 현재 많이 재학을 하고 있는지 궁금합니다!
+3학년 되어서야 한의대에 관심을 가지게 되어서ㅠ 여러모로 고민이 많이 되네요 재학생분들께 조언 한번 부탁드리고 싶습니다! 동의대 한의대 재학중인분들 정말 존경합니다!</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>의대 생기부는 종합으로 붙기는 빡셀거예요</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>동의대 한의예과 학교생활우수자전형</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>작년에 냈었는데, 생기부과 관련없어서 광탈했습니다
+혹시 n수합격생이 있다고들었는데, 생기부에 의학관련이나 한의학관련으로 다 되어있었나요?
+관련없는학과에서 합격사례있는지 궁금해요ㅜ
+혹은 그밖에도 무슨생기부내용으로 합격했는지
+알수있을까요?</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2학년부터 한의학 관련 내용 이였는데 조금 배우고 보니 내용이 엄청 깊진 않았어요 열정적으로 활동했던 정도였던것 같아요
+아무것도 모르고 통합의학 관련 내용도 쓰긴 했었는데 지금 돌아가면 다시 쓰지는 않을 것 같아요..!</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 성적</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>안녕하세요 동의대학교 문과 정시로 지망하는
+재수생입니다 정시로는 성적이 올1 맞아야 하는 건 알고 있지만 동의대는 어느정도인지 궁금해요 
+정시로 들어오신 문과 선배님들 백분위 아니면 표점 알려주세요!!</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>입학이 옛날이라 좀 가물가물한데 문과 수석이 3문제인가 틀렸고 문닫고 들어온 사람이 8, 9개쯤이었던 것 같네여</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>22학번 정시</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>이과분들 백분위가 어떻게 되시나요</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>hoxy...다른 학과는 관심없으신지 없으면 유감</t>
+        </is>
+      </c>
+    </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>한의대 입결 관련 질문</t>
+          <t>한의예과</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>동의대학교 입학처 - 정시모집 - 모집요강에서 성적 산출 방법 찾아보세욥</t>
+          <t>정시 어느정도 선까지 가능할까요?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>지금까지 평가원 기출 풀어봤을때 
+국어 2등급 고정(운이좋으면 1등급 나오는 수준)
+수학은 안정적인 1등급
+영어 1등급
+탐구 물1 1등급-2등급 오가는 수준, 지1 2등급
+어느정도까지 성적 끌어올리면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>지구를 무조건 1등급 받게 노력해보고 수능까지 많이 남았으니 국어 모고를 바탕으로 많이 틀리는 부분 분석해서 1등급 만들면 충붙할거 같아용 가장 쉬운게 지구 1만들기 같습니다</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>지방 교과</t>
+          <t>한의예과</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>성적 산출은 요강 참고하시고 최대한 1점 초반 수렴 시키세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>문과 정시 한의대</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>학번 따라 케바케가 심한데 적은 학번은 현역이 30프로 미만이에요</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>동의대 한의대 최저없는 종합 조언 부탁드립니다</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>의대 생기부는 종합으로 붙기는 빡셀거예요</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>동의대 한의예과 학교생활우수자전형</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2학년부터 한의학 관련 내용 이였는데 조금 배우고 보니 내용이 엄청 깊진 않았어요 열정적으로 활동했던 정도였던것 같아요
-아무것도 모르고 통합의학 관련 내용도 쓰긴 했었는데 지금 돌아가면 다시 쓰지는 않을 것 같아요..!</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>안녕하세요, 수시로 지원하려는 학생입니다</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>유급은…
-공부를 하면 안 힘들고 공부를 안 하면 힘듭니다!!!</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>지방 일반고 문과에서 한의예과 가려면 어떻게 해야하나요?</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>무조건 1.0 수렴 시키시고 몇년이 되든 교과 최저 맞춰서 오시는게 아무리 봐도 가장 쉬운 방법입니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>동의대학교 정시 성적</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>입학이 옛날이라 좀 가물가물한데 문과 수석이 3문제인가 틀렸고 문닫고 들어온 사람이 8, 9개쯤이었던 것 같네여</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>22학번 정시</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>hoxy...다른 학과는 관심없으신지 없으면 유감</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>학고 반수</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>될 것 같아요 1학기 유급당하면 자동으로 2학기 휴학처리됩니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>정시 어느정도 선까지 가능할까요?</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>지구를 무조건 1등급 받게 노력해보고 수능까지 많이 남았으니 국어 모고를 바탕으로 많이 틀리는 부분 분석해서 1등급 만들면 충붙할거 같아용 가장 쉬운게 지구 1만들기 같습니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
           <t>지역인재 1.21 가능할까요?</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>최저 맞춘다하면 들어갈 수 있나요?</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>그냥 교과로 넣어도 가능할거 같은데 게다가 지역인재면 더 가능성 높구요 최저가 관건일거 같네요.
 10모도 중요하니까 수능 친다는 마음가짐으로 해봐요!
@@ -1022,133 +1343,187 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>종합</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>우수자전형 20중반은 안뽑나요?</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>한의예랑 연고경 중에 고민하고 있는 고3인데</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>어디로 가는걸 추천하시나요?
+한의대가 그대로 미래가 낫다는걸 알고 싶은데
+20대는 좀 놀고 싶어서 고민하고 있습니다</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>장담컨데 20대 연고경 학생보다 한의대생이 더 맘 편하고 신나게 놀 수 있어요ㅎㅎ 근데 제가 이과라 잘 모르긴 한데 연고경이랑 한의가 겹치나요..? 설대 인문보다도 높은 걸로 알고있어서..</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>25살 한의대 입학</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>어휴, 더 많은 분도 계십니다, 나이가 뭐라구요</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>지역인재 가능해서 넣으면 무조건되긴 할텐데</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>유급많다고 소문나서 동신대 넣어야 할지 진지하게 고민중인데ㅠㅠ평균적으로 얼마나 유급하나요...?</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>본인만 성실하면 유급걱정 없습니다 꼭 오세요 함께하고 싶습니다</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>중3입니다.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>안녕하세요 중3 학생입니다.
+한의사를 진로로 지망하고 있습니다.
+한의대 재학생분께 질문 드리고 싶습니다!
+1. 중3 기준 선행이 필요한가요? 
+2. 안좋은 일반고, 잘하는 일반고 중 뭐가 나을까요? 분위기따라 공부하는 편이라 못하는 일반고 가서 잘할 수 있을지 모르겠습니다 ㅜㅜ
+3. 고등학교 가서는 어떻게 공부해야 하나요? (공부 시간, 과목 등)
+감사합니다!</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>한의예과는 아니지만 명문사립 동의대학교 공대생으로서 후배님에게 도움이되고싶습니다! 제 공부법을 토대로 조언해드려도될까요?</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>나이많은 1.08내신 수시종합 가능할까요?</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20중반이고 내신은 1.08인데 수시 종합이 가능할지요?(문과였는데 의대희망하여 생기부는 의료관련 많습니다)
+수시종합 장수생 합격사례가 있는지 궁금합니다! 교과는 생각보다는 최저가 높더라구요</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>21학번 기준 종합 합격자들은 대부분이 현역이고 최대 재수인걸로 알고있습니다. 교과로 최초합권이신데 최저가 한의대 중에서는 낮은 편이니 교과전형을 추천드립니다.</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>교양 수업은 한의대생끼리 듣나요?</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>6년 내내 모든 수업 한의대 동기들이랑만 듣습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>한의대에 오비나 나사 모임이 있나요?</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>입학기준 25이상으로 알고 있어요 남자는 군필</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>동의대 한의대 어떤가요?</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>수능 성적으로 고대 공대는 무난히 붙고 동의대 한의대는 적정인 것 같습니다. 그리고 경찰대 예비를 받았는데 붙을거 같습니다 . 꿈이 한의사인건 아닌데 사실 페이나 근무환경 등이 한의사가 좋기 때문에 고대를 버리고 동의대 한의대를 지원하려고 하는데,
+인터넷을 뒤져보니 유급이 많다는 것 뿐만 아니라 학교 욕도 많던데 그렇게 동의대 한의대가 별로인가요?</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>타 대학에 비해 유급 걱정이 많은 편이긴 하죠. 근데 학교에 불만족하는 글에 대해서는 작성자분께서 12년간 학창시절을 보내오셨다면 자연히 아시리라 생각합니다. 또 무작정 까내는 글은 재학생이 아닌 사람이 작성했을 확률이 높겠죠. 사실 경희한 빼면 한의대에서 큰 차이는 없습니다. 개인적인 생각으로는 고대 공대보다는 한의대를 추천드리며, 혹시나 경찰직에 뜻이 있고 버틸 수 있다고 생각되시면 한의대보다는 경찰대를 추천드립니다.</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>지역인재 인문</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>문과 2학년 2학기까지 1.3에서 1.4정도 나오는데 최저 맞추면 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>안녕하십니까! 언제나 너의 곁에  WE-DEU 동의대학교 입학홍보대사 신민정입니다.
 2020학년도 동의대학교 한의예과 지역인재교과전형 최종합격자의 평균내신은 1.35이고 표준편차는 0.15입니다. 이를 참고하시면 좋은 듯 합니다.
@@ -1157,39 +1532,24 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>유급 그렇게 힘든가요??</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>진짜 하기나름인 것 같아요. 할 수 있어요 충분히.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>학교 생활 질문이요</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1. 기숙사생이 아니었어서 잘 모르겠지만 대체로 행긱 쓰는 것 같았어요.
-2. 예1과 예2  1학기까지는 가야, 양정 번갈아갑니다. 원래 수업으로 따지면 양정이 더 많지만 올해 양정수업은 대부분 비대면이었습니다. 예2 2학기부터는 양정에서만 수업합니다.
-3. 1학기는 비대면 수업을 한 후 기말고사만 대면으로 쳤습니다. 2학기는 코로나 19  사태가 다소 진정되었을 때 일부 과목을 대면 수업으로 진행했고 중간 고사는 대면으로 쳤습니다. 다시 바이러스가 재확산된 이후에 기말고사는 비대면으로 이뤄졌습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>최종 합격 너무 하고 싶은데..</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ㅠ.ㅠ 문과 1.3이고 학교생활우수자로 넣어서 1차는 합격했습니다..(이외에도 경희 동국 등 학종으로 넣은 학교는 전부 1차 붙었습니다) 
+3년 내내 봉사 과세특 독서 진로,자율활동 등 어느 분야 빠지지 않고 한의학으로 채웠고 전문의 따고 싶어서 세부 전공까지 생기부에 도배해놨는데..최종 가능성 있을까요...?ㅠㅠㅠ 면접은 녹화면접이라 의미가 없을 것 같아요.물론 꽉꽉 분량 채워서 최대한 녹화했답니다..</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>듣기로 면접이 온라인으로 대체되는 만큼.. 
 그리 큰 비중이 없다고 합니다
@@ -1197,141 +1557,138 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>한의대 질문 있습니다</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1 문과 서울 중상위권 대학이라면 여기 오는 것도 나쁘지 않다고 생각합니다. 미래가 불투명하진 않아서 저는 만족합니다.
-2 다른 한의대보다 빡센 분위기에요. 당연히 수능보다 공부량이 정말 많습니다. 합격하시고 예1(1학년)을 제외하고 공부에 지치지 않게 컨디션 잘 조절하면서 다니시면 괜찮은 곳입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>동의 한의</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1.네이버 블로그에서 동의 한의 정시 국수탐 이과 백분위가 94라던데 맞나요?
+2.평백이 94면 국수탐 모두 2등급 최상위에 영어1이면 가능하단 소린가요?
+3.의대,치대는 예과땐 아주 천국이라던데 한의는 어떤가요?</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>이글에 댓글이 없는 이유 왜? 웬만한 사람들은 범접할 수 없는 세계이기 때문이다.</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>지역인재 교과</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>문과 1.32로 지원해보려고 하는데 가능할까요?
+최저는 자신있어요!!
+지역인재교과전형이 작년에 생긴거 같아서 입결 믿고 지원해도 될까 싶네요...</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>최초합까진 모르겠고, 추합은 가능할 수도 있을 것 같아요</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>안녕하세요, 이번에 수시 지원하려고 합니다.</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>본인 등판! 
-너무너무 축하해 (๑&gt;◡&amp;lt;๑)</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>학교 홍보대사나 음악 동아리 활동과 학업 병행하기 힘든가요?</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>안녕하십니까!
-언제나 너의 곁에 WE-DEU 동의대학교 입학홍보대사 신민정입니다!
-저는 지금 예과 1학년으로 입학홍보대사를 하고있는데 학업에큰 무리없이 진행하고있습니다. 하지만 제 경우는 코로나로 인한 특수한 상황일 수 있으므로 제 선배님의 사례를 말씀드리자면 본과 2학년 때 홍보대사, 동아리 활동을 하더라도 정말 매우 바쁘기는 하지만 개인의 역량에 따라 학업을 수행하는 것이 가능한 것으로 보여집니다. 자신의 역량과 의지를 파악하고 학업에 방해가 되지 않는 선에서 판단하는 것이 중요합니다!
-다른 문의사항있으시면 아래 링크로 문의주시면 친절하게 도와드리겠습니다.
-https://open.kakao.com/o/sg6XNHpc</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>어느 정도 공부해야 유급 안 당하는지 궁금합니다!</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>아마 글대로 사시면 당연 면유급+장학금까지도 어쩌면 가능할지도 ㅎㅅㅎ.. 시험 1주일 전부터 고등학생때 하던거의 반만 해도 면유급이라고 알고 있어요
-유급은 보통 한 학기에 5명쯤 했다면 많이 당했다고 보는 것 같던데!! 사실 저도 예과라서 본과인 경우는 잘 모르겠네요😂</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>귀국</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>안녕하세요 귀국학생 편입하구 지역내 일반고 1학년 2학기로 편입할 예정인 일반귀국학생입니다. 본교 입시요강에서 귀국 학생 조항이 분명히 명시되어있지는 않지만 국외학교 재학 생기부와 국내학교를 제출하면 되고 국내 학교의 성적이 일반 학생들과 조금 다른 비율로 적용된다고는 적혀있습니다. 요새 고민이 너무 많은데, 혹시 귀국학생 편입 전형에 대해 잘 아시는 분이거나, 동 전형을 통해 들어오신 분들이 계시다면 도움 주시면 감사하겠습니다 !! 타과도 괜찮습니다! 읽어주셔서 감사합니닷</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>중국어</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>고1 입니다. 고 2때 듣게될 선택과목을 지금부터 고르고 있습니다. 제가 사실 한의대가 아니더라도 의료계열로 갈 생각이라, 문이과 통합이지만 이과 쪽으로 선택을 거의 했습니다. 그런데 제 2외국어 일본어 중국어 중에서는 뭘 선택해야 할까요, 한의대를 갈려면 중국어를 선택 해야된다고들 하는데 제가 중국어에 중자도 모르는 그냥 노베이스거든요, 그래서 내신을 잘 딸수 있을까 걱정도되고, 한의대 꼭 중국어 선택 해야되나요...</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>아뇨 중국어를 해야 한다고 누가 그래요ㅋㅋㅋㅋ 근거 없는 얘기에 휘둘리지 마시고 무조건 성적이 잘 나오는 과목들로 가세요~</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>동의대 인문 한의예과</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>확률과통계로 한의예과 들어갈려면 수능 몇개 틀려야 가능한가요..?</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>작년과 과목이 차이가 나서 확실히는 말씀드릴 수 없지만 
 정시로는 거의 무조건 1등급이어야 합니다. 1등급 중에서도 표준점수가 높은 1등급이어야 합니다</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>동의대 한의대</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>꽤 잘 줍니다 방심하면 유급..💪💪</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>동의대 한의대 학종(학교생활우수자전형)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>문과도 지원 가능한가요..?</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>가능한데, 컷1점 초반으로 서울대랑 비슷하죠.
 한의대 특성상 컷이 높은 건 어쩔 수 없긴 하지만 문과 컷이 이과 컷보단 수치상으론 높아요. 적게 뽑으니 어쩔 수 없죠. 문,이과 선탁이 가능하시다면 이과가 유리하나(공부를 잘한다는 가정 아래에) 문과를 벌써 선택하셨다면 내신 산출이 학종이라도 1점 극 초반에 화려한 스펙(문과적 스펙이 아 문,이과 선탁이 가능하시다면 이과가 유리하나(공부를 잘한다는 가정 아래에) 문과를 벌써 선택하셨다면 내신 산출이 학종이라도 1점 극 초반에 화려한 스펙(문과적 스펙이 아 문,이과 선탁이 가능하시다면 이과가 유리하나(공부를 잘한다는 가정아래에) 문과를 벌써 선택하셨다면 내신 산출이 학종이라도 1점 극 초반에 화려한 스펙(문과적 스펙이 아닌 이과적 스펙이 훨씬 중요)
@@ -1339,100 +1696,90 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>중국어도 입시할때 챙겨야 하나요?</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>서울대 갈때는 중국어같은걸 챙겨야 하는걸로 아는데 한의학과도 챙겨야 하나요??</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>네 전과목 다 칩니다.
 예체능 전부 포함이라 의치한은 정시가 편해요.</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>남녀성비</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>거의 반반인데 남자가 좀 더 많아요!! 높은학번 선배님들은 남자가 여자보다 더 많다고 알고 있어요</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>검정고시- 학생부교과로 들어오신 분들 계신가요?</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>검정고시 만점자는 일반고교 졸업자와 달리 가산점이 없어서 지원을 해도 가망이 있을지 모르겠어서요 ㅜㅜㅜ 혹시 검고 교과로 들어오신 분들 계시는지랑 몇년도에 합격하신 분들인지 알 수 있을까요? 간절히 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>엥 그게 되나?? 그럼 너무 날로먹는 거 아니에요...?</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>한의예과는 전과로는 못가나요?</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>한의과대학이랑 의료보건계열로는 전과 신청이 불가능합니다. 전과는 전과여석이 생기면 2학년 때부터 신청 가능한 걸로 알고 있습니다. 정확한 과정은 홈페이지에 있으니 참조하세요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>유급 궁금해요</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>진짜 올해 더 빡세졌어요
-개스트레스 받습니다
-이학교온거 후회는 안하는데 힘들어요..ㅎ</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>질문</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>19학번은 1대1인데 윗학번은 남자가 조금 더 많은걸로 알고있습니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>문과</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>한의예과 문과 정시 가능 등급 컷좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>흠 문과 정시 오시려면 왠만하면 다 1이긴 해야해요.. 만약 국어나 수학이 90 후반 혹은 100이라면 한과목정도 2 떠도 가능해요</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>한의예과</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>후보 3을 받았는데</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>추합 될까요...? 2014년부터 5번 이상까지 돌긴 했던데 2013년이 2번까지만 충원돼서 불안해요 ㅠㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>안녕하세요. 반갑습니다! 동의대학교 입학홍보대사 WE-DEU입니다😊😊
 에브리타임으로 문의주셨는데, 페이스북 wedeu890로 페이스북메세지 보내주시거나 인스타그램 we_deu로 DM 보내주시면 상세하게 답변도와드리겠습니다❤️
